--- a/预测结果.xlsx
+++ b/预测结果.xlsx
@@ -11,8 +11,99 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均绝对差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平滑因数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不保留英文和数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用对数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征选取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高频前10个</t>
+  </si>
+  <si>
+    <t>L5:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次数&lt;=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,9 +147,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -67,6 +167,58 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9429750" y="1714500"/>
+          <a:ext cx="4457700" cy="1390650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,15 +506,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="10" max="12" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3">
+        <v>5100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>0.87599206299999999</v>
+      </c>
+      <c r="K3">
+        <v>0.53604497399999995</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>0.91600529100000005</v>
+      </c>
+      <c r="K4">
+        <v>0.59030158799999999</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>44</v>
+      </c>
+      <c r="O4">
+        <f>103-44</f>
+        <v>59</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <f>SUM(N4:R4)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>0.87235449700000001</v>
+      </c>
+      <c r="K5">
+        <v>0.52645502700000002</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <f>SUM(N5:R5)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="J6">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.550273597</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>77</v>
+      </c>
+      <c r="P6">
+        <v>58</v>
+      </c>
+      <c r="Q6">
+        <v>23</v>
+      </c>
+      <c r="R6">
+        <v>42</v>
+      </c>
+      <c r="S6">
+        <f t="shared" ref="S6:S8" si="0">SUM(N6:R6)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="L7" s="2"/>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>122</v>
+      </c>
+      <c r="P7">
+        <v>112</v>
+      </c>
+      <c r="Q7">
+        <v>130</v>
+      </c>
+      <c r="R7">
+        <v>253</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>638</v>
+      </c>
+      <c r="U7">
+        <f>44+12+58+130+1240</f>
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="L8" s="2"/>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>64</v>
+      </c>
+      <c r="O8">
+        <v>224</v>
+      </c>
+      <c r="P8">
+        <v>182</v>
+      </c>
+      <c r="Q8">
+        <v>295</v>
+      </c>
+      <c r="R8">
+        <v>1240</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="N9">
+        <f>SUM(N4:N8)</f>
+        <v>159</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:S9" si="1">SUM(O4:O8)</f>
+        <v>494</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="1"/>
+        <v>1551</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="1"/>
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="T14" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="T15">
+        <f>43+12+60+124+1245</f>
+        <v>1484</v>
+      </c>
+      <c r="U15">
+        <v>0.49074074074073998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E3:E6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
